--- a/_analysis/ESC-10_metrics_augmentation.xlsx
+++ b/_analysis/ESC-10_metrics_augmentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A0C0F8-2468-4D33-AE05-E728C9518072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157824FF-F037-41FB-A256-9DB8A889E775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,8 +60,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="52" r:id="rId11"/>
+    <pivotCache cacheId="53" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -841,7 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +935,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,7 +983,301 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="153">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -4183,7 +4487,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t>   Accuracy per fold (Original x Augmented )</a:t>
+              <a:t>   Accuracy per fold (Original normalized x Augmented normalized)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
@@ -4591,52 +4895,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4675,10 +4979,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.84583333333333299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
@@ -4687,40 +4991,40 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.73124999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.80416666666666603</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77916666666666601</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.83541666666666603</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82291666666666596</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.84375</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85208333333333297</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.79791666666666605</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80833333333333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4817,52 +5121,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4901,52 +5205,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.84583333333333299</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86041666666666605</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69374999999999998</c:v>
+                  <c:v>0.71250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.69374999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.80625000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.89375000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88749999999999996</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.91458333333333297</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.875</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.86666666666666603</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.87708333333333299</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.91041666666666599</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89791666666666603</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.90833333333333299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.87291666666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,52 +5347,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5130,49 +5434,49 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85416666666666596</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70833333333333304</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.78749999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77083333333333304</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.83958333333333302</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.83958333333333302</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.84791666666666599</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85624999999999996</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.84166666666666601</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.84375</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.82291666666666596</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84583333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,52 +5573,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5353,52 +5657,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.92708333333333304</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93125000000000002</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80208333333333304</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.80208333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90833333333333299</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.91874999999999996</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89791666666666603</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.91249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.91041666666666599</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.88749999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89583333333333304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,52 +5799,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5579,52 +5883,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73958333333333304</c:v>
+                  <c:v>0.78749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73958333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.71458333333333302</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.875</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.88541666666666596</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.84375</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.86250000000000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85208333333333297</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.84583333333333299</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.83958333333333302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,52 +6362,52 @@
                 <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="2">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="4">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="6">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="8">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="10">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                  <c:pt idx="12">
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
-                  </c:pt>
                   <c:pt idx="14">
-                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
+                    <c:v>ESC-10 With 375 features and no augmentation (normalized)</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>ESC-10 With 375 features with augmentation (standardized)</c:v>
+                    <c:v>ESC-10 With 375 features with augmentation (normalized)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6142,52 +6446,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.8670833333333331</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86999999999999977</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72874999999999979</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72874999999999979</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.76291666666666658</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73749999999999982</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.87250000000000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.86749999999999972</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84833333333333305</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.87750000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.87874999999999959</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.85499999999999987</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.85500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.86416666666666653</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8670833333333331</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.84749999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.86166666666666614</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85708333333333298</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.84749999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.85666666666666647</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84958333333333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23140,7 +23444,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57666B55-5D97-44CB-AAD3-9DB909E4BFEA}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57666B55-5D97-44CB-AAD3-9DB909E4BFEA}" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A17:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -23207,67 +23511,67 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="16">
+    <format dxfId="86">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="85">
       <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="84">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="83">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="81">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="80">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="77">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="76">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23520,7 +23824,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE72A84F-4665-4D2A-AA00-555C2FAFB62A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE72A84F-4665-4D2A-AA00-555C2FAFB62A}" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A2:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -23616,7 +23920,7 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="36">
+    <format dxfId="106">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -23624,81 +23928,81 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="105">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="104">
       <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="103">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="102">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="100">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="98">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="95">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="94">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="90">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="89">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -23777,7 +24081,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF7265BA-1E87-4DE8-B005-5FBB3F73FF7F}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="12" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF7265BA-1E87-4DE8-B005-5FBB3F73FF7F}" name="PivotTable3" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="12" fieldListSortAscending="1">
   <location ref="A192:B217" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -23820,11 +24124,11 @@
         <item h="1" m="1" x="11"/>
         <item h="1" m="1" x="10"/>
         <item h="1" x="6"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="7"/>
         <item h="1" x="5"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="3"/>
         <item h="1" x="2"/>
         <item t="default"/>
@@ -23840,73 +24144,73 @@
       <x/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -23919,34 +24223,34 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="22">
-    <format dxfId="58">
+    <format dxfId="128">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="127">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="126">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="124">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="123">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="122">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -23958,7 +24262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -23970,7 +24274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -23982,7 +24286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -23994,7 +24298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24006,7 +24310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24018,7 +24322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -24031,7 +24335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24041,7 +24345,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24051,7 +24355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24061,7 +24365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24071,7 +24375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24081,7 +24385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24093,7 +24397,7 @@
     </format>
   </formats>
   <conditionalFormats count="24">
-    <conditionalFormat priority="32">
+    <conditionalFormat priority="9">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -24101,27 +24405,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
               <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="31">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -24137,7 +24421,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="30">
+    <conditionalFormat priority="10">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -24145,7 +24429,415 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="11">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="12">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="13">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="14">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="15">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="16">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="17">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="18">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="19">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="20">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="21">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="22">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="23">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="24">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="25">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="26">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="12" count="4">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="27">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="28">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="1"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -24181,7 +24873,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="28">
+    <conditionalFormat priority="30">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -24189,7 +24881,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -24205,7 +24897,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="27">
+    <conditionalFormat priority="31">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -24213,7 +24905,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -24229,7 +24921,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="26">
+    <conditionalFormat priority="32">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -24237,401 +24929,13 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="12" count="4">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
               <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="25">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="24">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="23">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="22">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="21">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="20">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="19">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="18">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="17">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="16">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="15">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="14">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="13">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="12">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="11">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-            <reference field="12" count="4">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="10">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="9">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -24662,7 +24966,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024B4ABA-0FEB-45A1-9992-5B940DDDB538}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="7" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024B4ABA-0FEB-45A1-9992-5B940DDDB538}" name="PivotTable6" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="7" fieldListSortAscending="1">
   <location ref="A113:G139" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -24705,11 +25009,11 @@
         <item h="1" m="1" x="11"/>
         <item h="1" m="1" x="10"/>
         <item h="1" x="6"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="7"/>
         <item h="1" x="5"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="3"/>
         <item h="1" x="2"/>
         <item t="default"/>
@@ -24725,73 +25029,73 @@
       <x/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -24824,48 +25128,48 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="82">
+    <format dxfId="152">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="151">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="150">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="147">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="146">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="145">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="142">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24877,7 +25181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24889,7 +25193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24901,7 +25205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24913,7 +25217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24925,7 +25229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24937,7 +25241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -24950,7 +25254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24960,7 +25264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24970,7 +25274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24980,7 +25284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -24990,7 +25294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -25000,7 +25304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -25012,7 +25316,7 @@
     </format>
   </formats>
   <conditionalFormats count="8">
-    <conditionalFormat priority="8">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -25020,7 +25324,127 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -25060,7 +25484,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -25068,127 +25492,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -28261,7 +28565,7 @@
   <dimension ref="A2:M267"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A265" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="X280" sqref="X280"/>
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30955,70 +31259,70 @@
         <v>11</v>
       </c>
       <c r="B115" s="3">
-        <v>0.84166666666666656</v>
+        <v>0.84791666666666643</v>
       </c>
       <c r="C115" s="3">
-        <v>0.85312499999999947</v>
+        <v>0.82291666666666652</v>
       </c>
       <c r="D115" s="3">
-        <v>0.85208333333333297</v>
+        <v>0.85</v>
       </c>
       <c r="E115" s="3">
-        <v>0.92916666666666647</v>
+        <v>0.91979166666666656</v>
       </c>
       <c r="F115" s="3">
-        <v>0.86666666666666603</v>
+        <v>0.83958333333333302</v>
       </c>
       <c r="G115" s="3">
-        <v>0.86854166666666632</v>
+        <v>0.85604166666666648</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>40</v>
+      <c r="A116" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B116" s="3">
-        <v>0.84583333333333299</v>
+        <v>0.85</v>
       </c>
       <c r="C116" s="3">
-        <v>0.84583333333333299</v>
+        <v>0.8</v>
       </c>
       <c r="D116" s="3">
         <v>0.85</v>
       </c>
       <c r="E116" s="3">
-        <v>0.92708333333333304</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="F116" s="3">
-        <v>0.86666666666666603</v>
+        <v>0.8125</v>
       </c>
       <c r="G116" s="3">
-        <v>0.8670833333333331</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B117" s="3">
-        <v>0.83750000000000002</v>
+        <v>0.84583333333333299</v>
       </c>
       <c r="C117" s="3">
-        <v>0.86041666666666605</v>
+        <v>0.84583333333333299</v>
       </c>
       <c r="D117" s="3">
-        <v>0.85416666666666596</v>
+        <v>0.85</v>
       </c>
       <c r="E117" s="3">
-        <v>0.93125000000000002</v>
+        <v>0.92708333333333304</v>
       </c>
       <c r="F117" s="3">
         <v>0.86666666666666603</v>
       </c>
       <c r="G117" s="3">
-        <v>0.86999999999999955</v>
+        <v>0.8670833333333331</v>
       </c>
       <c r="H117"/>
     </row>
@@ -31030,49 +31334,49 @@
         <v>0.7</v>
       </c>
       <c r="C118" s="3">
-        <v>0.69374999999999998</v>
+        <v>0.703125</v>
       </c>
       <c r="D118" s="3">
-        <v>0.70833333333333304</v>
+        <v>0.71666666666666656</v>
       </c>
       <c r="E118" s="3">
-        <v>0.80208333333333304</v>
+        <v>0.8135416666666665</v>
       </c>
       <c r="F118" s="3">
-        <v>0.73958333333333304</v>
+        <v>0.76354166666666656</v>
       </c>
       <c r="G118" s="3">
-        <v>0.72874999999999979</v>
+        <v>0.73937499999999989</v>
       </c>
       <c r="H118"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B119" s="3">
         <v>0.7</v>
       </c>
       <c r="C119" s="3">
-        <v>0.69374999999999998</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="D119" s="3">
-        <v>0.70833333333333304</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E119" s="3">
-        <v>0.80208333333333304</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="F119" s="3">
-        <v>0.73958333333333304</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="G119" s="3">
-        <v>0.72874999999999979</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="H119"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B120" s="3">
         <v>0.7</v>
@@ -31099,70 +31403,70 @@
         <v>13</v>
       </c>
       <c r="B121" s="3">
-        <v>0.72812499999999991</v>
+        <v>0.734375</v>
       </c>
       <c r="C121" s="3">
-        <v>0.78645833333333304</v>
+        <v>0.77812499999999996</v>
       </c>
       <c r="D121" s="3">
-        <v>0.77916666666666656</v>
+        <v>0.80624999999999991</v>
       </c>
       <c r="E121" s="3">
         <v>0.75</v>
       </c>
       <c r="F121" s="3">
-        <v>0.70729166666666643</v>
+        <v>0.72604166666666647</v>
       </c>
       <c r="G121" s="3">
-        <v>0.75020833333333325</v>
+        <v>0.7589583333333334</v>
       </c>
       <c r="H121"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
-        <v>40</v>
+      <c r="A122" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B122" s="3">
-        <v>0.73124999999999996</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="C122" s="3">
-        <v>0.80625000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="D122" s="3">
-        <v>0.78749999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E122" s="3">
-        <v>0.77500000000000002</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F122" s="3">
-        <v>0.71458333333333302</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="G122" s="3">
-        <v>0.76291666666666669</v>
+        <v>0.75500000000000012</v>
       </c>
       <c r="H122"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" s="3">
-        <v>0.72499999999999998</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="C123" s="3">
-        <v>0.76666666666666605</v>
+        <v>0.80625000000000002</v>
       </c>
       <c r="D123" s="3">
-        <v>0.77083333333333304</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="E123" s="3">
-        <v>0.72499999999999998</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F123" s="3">
-        <v>0.7</v>
+        <v>0.71458333333333302</v>
       </c>
       <c r="G123" s="3">
-        <v>0.73749999999999982</v>
+        <v>0.76291666666666669</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -31170,68 +31474,68 @@
         <v>14</v>
       </c>
       <c r="B124" s="3">
-        <v>0.79166666666666607</v>
+        <v>0.80833333333333302</v>
       </c>
       <c r="C124" s="3">
-        <v>0.890625</v>
+        <v>0.90312499999999996</v>
       </c>
       <c r="D124" s="3">
-        <v>0.83645833333333308</v>
+        <v>0.8447916666666665</v>
       </c>
       <c r="E124" s="3">
-        <v>0.91666666666666652</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F124" s="3">
-        <v>0.85416666666666652</v>
+        <v>0.86875000000000002</v>
       </c>
       <c r="G124" s="3">
-        <v>0.85791666666666655</v>
+        <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B125" s="3">
-        <v>0.80416666666666603</v>
+        <v>0.8125</v>
       </c>
       <c r="C125" s="3">
-        <v>0.89375000000000004</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D125" s="3">
-        <v>0.83958333333333302</v>
+        <v>0.85</v>
       </c>
       <c r="E125" s="3">
         <v>0.92500000000000004</v>
       </c>
       <c r="F125" s="3">
-        <v>0.875</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="G125" s="3">
-        <v>0.86749999999999994</v>
+        <v>0.87249999999999994</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B126" s="3">
-        <v>0.77916666666666601</v>
+        <v>0.80416666666666603</v>
       </c>
       <c r="C126" s="3">
-        <v>0.88749999999999996</v>
+        <v>0.89375000000000004</v>
       </c>
       <c r="D126" s="3">
-        <v>0.83333333333333304</v>
+        <v>0.83958333333333302</v>
       </c>
       <c r="E126" s="3">
-        <v>0.90833333333333299</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F126" s="3">
-        <v>0.83333333333333304</v>
+        <v>0.875</v>
       </c>
       <c r="G126" s="3">
-        <v>0.84833333333333305</v>
+        <v>0.86749999999999994</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -31239,68 +31543,68 @@
         <v>15</v>
       </c>
       <c r="B127" s="3">
-        <v>0.82916666666666594</v>
+        <v>0.82395833333333302</v>
       </c>
       <c r="C127" s="3">
-        <v>0.89479166666666643</v>
+        <v>0.91354166666666647</v>
       </c>
       <c r="D127" s="3">
-        <v>0.83645833333333308</v>
+        <v>0.85104166666666647</v>
       </c>
       <c r="E127" s="3">
-        <v>0.90937500000000004</v>
+        <v>0.921875</v>
       </c>
       <c r="F127" s="3">
-        <v>0.86458333333333304</v>
+        <v>0.88020833333333304</v>
       </c>
       <c r="G127" s="3">
-        <v>0.86687499999999962</v>
+        <v>0.87812499999999982</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B128" s="3">
-        <v>0.83541666666666603</v>
+        <v>0.8125</v>
       </c>
       <c r="C128" s="3">
-        <v>0.91458333333333297</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D128" s="3">
-        <v>0.83958333333333302</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="E128" s="3">
-        <v>0.91874999999999996</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F128" s="3">
-        <v>0.88541666666666596</v>
+        <v>0.875</v>
       </c>
       <c r="G128" s="3">
-        <v>0.87874999999999959</v>
+        <v>0.87750000000000006</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B129" s="3">
-        <v>0.82291666666666596</v>
+        <v>0.83541666666666603</v>
       </c>
       <c r="C129" s="3">
-        <v>0.875</v>
+        <v>0.91458333333333297</v>
       </c>
       <c r="D129" s="3">
-        <v>0.83333333333333304</v>
+        <v>0.83958333333333302</v>
       </c>
       <c r="E129" s="3">
-        <v>0.9</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="F129" s="3">
-        <v>0.84375</v>
+        <v>0.88541666666666596</v>
       </c>
       <c r="G129" s="3">
-        <v>0.85499999999999976</v>
+        <v>0.87874999999999959</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -31308,68 +31612,68 @@
         <v>16</v>
       </c>
       <c r="B130" s="3">
-        <v>0.84791666666666643</v>
+        <v>0.828125</v>
       </c>
       <c r="C130" s="3">
-        <v>0.87187499999999951</v>
+        <v>0.86458333333333304</v>
       </c>
       <c r="D130" s="3">
-        <v>0.85208333333333297</v>
+        <v>0.84270833333333295</v>
       </c>
       <c r="E130" s="3">
-        <v>0.89895833333333308</v>
+        <v>0.89375000000000004</v>
       </c>
       <c r="F130" s="3">
-        <v>0.85729166666666656</v>
+        <v>0.86875000000000002</v>
       </c>
       <c r="G130" s="3">
-        <v>0.86562499999999964</v>
+        <v>0.85958333333333314</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B131" s="3">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="C131" s="3">
-        <v>0.86666666666666603</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="D131" s="3">
-        <v>0.84791666666666599</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="E131" s="3">
-        <v>0.9</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="F131" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="G131" s="3">
-        <v>0.86416666666666642</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B132" s="3">
-        <v>0.85208333333333297</v>
+        <v>0.84375</v>
       </c>
       <c r="C132" s="3">
-        <v>0.87708333333333299</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="D132" s="3">
-        <v>0.85624999999999996</v>
+        <v>0.84791666666666599</v>
       </c>
       <c r="E132" s="3">
-        <v>0.89791666666666603</v>
+        <v>0.9</v>
       </c>
       <c r="F132" s="3">
-        <v>0.85208333333333297</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="G132" s="3">
-        <v>0.8670833333333331</v>
+        <v>0.86416666666666642</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -31377,68 +31681,68 @@
         <v>44</v>
       </c>
       <c r="B133" s="3">
-        <v>0.79895833333333299</v>
+        <v>0.81770833333333304</v>
       </c>
       <c r="C133" s="3">
-        <v>0.90416666666666601</v>
+        <v>0.87395833333333295</v>
       </c>
       <c r="D133" s="3">
-        <v>0.84270833333333295</v>
+        <v>0.84583333333333299</v>
       </c>
       <c r="E133" s="3">
-        <v>0.91145833333333304</v>
+        <v>0.89375000000000004</v>
       </c>
       <c r="F133" s="3">
-        <v>0.83958333333333302</v>
+        <v>0.84166666666666656</v>
       </c>
       <c r="G133" s="3">
-        <v>0.85937499999999967</v>
+        <v>0.85458333333333303</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B134" s="3">
-        <v>0.79791666666666605</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="C134" s="3">
-        <v>0.91041666666666599</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="D134" s="3">
-        <v>0.84166666666666601</v>
+        <v>0.85</v>
       </c>
       <c r="E134" s="3">
-        <v>0.91249999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="F134" s="3">
-        <v>0.84583333333333299</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="G134" s="3">
-        <v>0.86166666666666614</v>
+        <v>0.84749999999999992</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B135" s="3">
-        <v>0.8</v>
+        <v>0.79791666666666605</v>
       </c>
       <c r="C135" s="3">
-        <v>0.89791666666666603</v>
+        <v>0.91041666666666599</v>
       </c>
       <c r="D135" s="3">
-        <v>0.84375</v>
+        <v>0.84166666666666601</v>
       </c>
       <c r="E135" s="3">
-        <v>0.91041666666666599</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="F135" s="3">
-        <v>0.83333333333333304</v>
+        <v>0.84583333333333299</v>
       </c>
       <c r="G135" s="3">
-        <v>0.85708333333333298</v>
+        <v>0.86166666666666614</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -31446,70 +31750,70 @@
         <v>45</v>
       </c>
       <c r="B136" s="3">
-        <v>0.81666666666666643</v>
+        <v>0.8125</v>
       </c>
       <c r="C136" s="3">
-        <v>0.89062499999999956</v>
+        <v>0.88541666666666652</v>
       </c>
       <c r="D136" s="3">
-        <v>0.83437499999999942</v>
+        <v>0.84895833333333304</v>
       </c>
       <c r="E136" s="3">
-        <v>0.8916666666666665</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="F136" s="3">
         <v>0.83229166666666643</v>
       </c>
       <c r="G136" s="3">
-        <v>0.85312499999999969</v>
+        <v>0.85208333333333319</v>
       </c>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B137" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F137" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="C137" s="3">
-        <v>0.90833333333333299</v>
-      </c>
-      <c r="D137" s="3">
-        <v>0.82291666666666596</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0.83958333333333302</v>
-      </c>
       <c r="G137" s="3">
-        <v>0.85666666666666624</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B138" s="3">
-        <v>0.80833333333333302</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C138" s="3">
-        <v>0.87291666666666601</v>
+        <v>0.90833333333333299</v>
       </c>
       <c r="D138" s="3">
-        <v>0.84583333333333299</v>
+        <v>0.82291666666666596</v>
       </c>
       <c r="E138" s="3">
-        <v>0.89583333333333304</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="F138" s="3">
-        <v>0.82499999999999996</v>
+        <v>0.83958333333333302</v>
       </c>
       <c r="G138" s="3">
-        <v>0.84958333333333302</v>
+        <v>0.85666666666666624</v>
       </c>
       <c r="J138" s="3"/>
     </row>
@@ -31518,22 +31822,22 @@
         <v>35</v>
       </c>
       <c r="B139" s="3">
-        <v>0.79427083333333304</v>
+        <v>0.79661458333333324</v>
       </c>
       <c r="C139" s="3">
-        <v>0.84817708333333297</v>
+        <v>0.84309895833333326</v>
       </c>
       <c r="D139" s="3">
-        <v>0.81770833333333304</v>
+        <v>0.8257812499999998</v>
       </c>
       <c r="E139" s="3">
-        <v>0.87617187499999982</v>
+        <v>0.87486979166666645</v>
       </c>
       <c r="F139" s="3">
-        <v>0.82018229166666656</v>
+        <v>0.82760416666666647</v>
       </c>
       <c r="G139" s="3">
-        <v>0.83130208333333311</v>
+        <v>0.8335937499999998</v>
       </c>
       <c r="J139" s="3"/>
     </row>
@@ -31951,7 +32255,7 @@
         <v>11</v>
       </c>
       <c r="B193" s="3">
-        <v>0.86854166666666632</v>
+        <v>0.85604166666666648</v>
       </c>
       <c r="C193"/>
       <c r="D193"/>
@@ -31960,11 +32264,11 @@
       <c r="G193"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="28" t="s">
-        <v>40</v>
+      <c r="A194" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B194" s="3">
-        <v>0.8670833333333331</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C194"/>
       <c r="D194"/>
@@ -31974,10 +32278,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B195" s="3">
-        <v>0.86999999999999977</v>
+        <v>0.8670833333333331</v>
       </c>
       <c r="C195"/>
       <c r="D195"/>
@@ -31990,7 +32294,7 @@
         <v>12</v>
       </c>
       <c r="B196" s="3">
-        <v>0.72874999999999979</v>
+        <v>0.73937499999999989</v>
       </c>
       <c r="C196"/>
       <c r="D196"/>
@@ -32000,10 +32304,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B197" s="3">
-        <v>0.72874999999999979</v>
+        <v>0.75</v>
       </c>
       <c r="C197"/>
       <c r="D197"/>
@@ -32013,7 +32317,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B198" s="3">
         <v>0.72874999999999979</v>
@@ -32029,7 +32333,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="3">
-        <v>0.75020833333333303</v>
+        <v>0.7589583333333334</v>
       </c>
       <c r="C199"/>
       <c r="D199"/>
@@ -32038,11 +32342,11 @@
       <c r="G199"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="28" t="s">
-        <v>40</v>
+      <c r="A200" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B200" s="3">
-        <v>0.76291666666666658</v>
+        <v>0.755</v>
       </c>
       <c r="C200"/>
       <c r="D200"/>
@@ -32052,10 +32356,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B201" s="3">
-        <v>0.73749999999999982</v>
+        <v>0.76291666666666658</v>
       </c>
       <c r="C201"/>
       <c r="D201"/>
@@ -32068,7 +32372,7 @@
         <v>14</v>
       </c>
       <c r="B202" s="3">
-        <v>0.85791666666666644</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="C202"/>
       <c r="D202"/>
@@ -32078,10 +32382,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B203" s="3">
-        <v>0.86749999999999972</v>
+        <v>0.87250000000000016</v>
       </c>
       <c r="C203"/>
       <c r="D203"/>
@@ -32091,10 +32395,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B204" s="3">
-        <v>0.84833333333333305</v>
+        <v>0.86749999999999972</v>
       </c>
       <c r="C204"/>
       <c r="D204"/>
@@ -32107,7 +32411,7 @@
         <v>15</v>
       </c>
       <c r="B205" s="3">
-        <v>0.86687499999999973</v>
+        <v>0.87812499999999982</v>
       </c>
       <c r="C205"/>
       <c r="D205"/>
@@ -32117,10 +32421,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B206" s="3">
-        <v>0.87874999999999959</v>
+        <v>0.87750000000000006</v>
       </c>
       <c r="C206"/>
       <c r="D206"/>
@@ -32130,10 +32434,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B207" s="3">
-        <v>0.85499999999999987</v>
+        <v>0.87874999999999959</v>
       </c>
       <c r="C207"/>
       <c r="D207"/>
@@ -32146,7 +32450,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="3">
-        <v>0.86562499999999987</v>
+        <v>0.85958333333333337</v>
       </c>
       <c r="C208"/>
       <c r="D208"/>
@@ -32156,10 +32460,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B209" s="3">
-        <v>0.86416666666666653</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="C209"/>
       <c r="D209"/>
@@ -32169,10 +32473,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B210" s="3">
-        <v>0.8670833333333331</v>
+        <v>0.86416666666666653</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
@@ -32185,7 +32489,7 @@
         <v>44</v>
       </c>
       <c r="B211" s="3">
-        <v>0.85937499999999967</v>
+        <v>0.85458333333333303</v>
       </c>
       <c r="C211"/>
       <c r="D211"/>
@@ -32195,10 +32499,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B212" s="3">
-        <v>0.86166666666666614</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="C212"/>
       <c r="D212"/>
@@ -32208,10 +32512,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B213" s="3">
-        <v>0.85708333333333298</v>
+        <v>0.86166666666666614</v>
       </c>
       <c r="C213"/>
       <c r="D213"/>
@@ -32224,7 +32528,7 @@
         <v>45</v>
       </c>
       <c r="B214" s="3">
-        <v>0.85312499999999969</v>
+        <v>0.85208333333333319</v>
       </c>
       <c r="C214"/>
       <c r="D214"/>
@@ -32234,10 +32538,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B215" s="3">
-        <v>0.85666666666666647</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="C215"/>
       <c r="D215"/>
@@ -32247,10 +32551,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B216" s="3">
-        <v>0.84958333333333302</v>
+        <v>0.85666666666666647</v>
       </c>
       <c r="C216"/>
       <c r="D216"/>
@@ -32263,7 +32567,7 @@
         <v>35</v>
       </c>
       <c r="B217" s="3">
-        <v>0.83130208333333289</v>
+        <v>0.83359374999999969</v>
       </c>
       <c r="C217"/>
       <c r="D217"/>
@@ -32684,7 +32988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B194">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -32720,7 +33024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B197">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -32756,7 +33060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B200">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -32792,7 +33096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B203">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -32828,7 +33132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B206">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -32864,7 +33168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B209">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -32900,7 +33204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B212">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -32936,7 +33240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="B215">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
